--- a/filedatabase/lopchinhquy.xlsx
+++ b/filedatabase/lopchinhquy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>tenLopChinh</t>
   </si>
@@ -30,16 +30,19 @@
     <t>K61CB</t>
   </si>
   <si>
-    <t>khoa</t>
-  </si>
-  <si>
-    <t>cong nghe thong tin</t>
-  </si>
-  <si>
-    <t>dien tu vien thong</t>
-  </si>
-  <si>
-    <t>co dien tu</t>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>idKhoa</t>
+  </si>
+  <si>
+    <t>cntt</t>
+  </si>
+  <si>
+    <t>cdt</t>
+  </si>
+  <si>
+    <t>dtvt</t>
   </si>
 </sst>
 </file>
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D6"/>
+  <dimension ref="B3:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,36 +393,48 @@
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
